--- a/haixinglian/Data/login_data.xlsx
+++ b/haixinglian/Data/login_data.xlsx
@@ -16,7 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ceshi123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>ceshi123</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -384,6 +388,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>13450450249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/haixinglian/Data/login_data.xlsx
+++ b/haixinglian/Data/login_data.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>ceshi123</t>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,31 +374,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>13450450249</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>13539831028</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>13450450249</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
